--- a/gcam-data-system/energy-data/assumptions/Tables_A42s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A42s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="A42.sector.csv" sheetId="5" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="A42.globaltech_eff.csv" sheetId="22" r:id="rId6"/>
     <sheet name="A42.globaltech_shrwt.csv" sheetId="23" r:id="rId7"/>
     <sheet name="fuelprefElast_GCAM3out" sheetId="73" r:id="rId8"/>
-    <sheet name="A42.fuelprefElasticity.csv" sheetId="71" r:id="rId9"/>
-    <sheet name="A42.demand.csv" sheetId="72" r:id="rId10"/>
+    <sheet name="A42.globaltech_interp.csv" sheetId="74" r:id="rId9"/>
+    <sheet name="A42.fuelprefElasticity.csv" sheetId="71" r:id="rId10"/>
+    <sheet name="A42.demand.csv" sheetId="72" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="75">
   <si>
     <t>technology</t>
   </si>
@@ -304,8 +305,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1757">
+  <cellStyleXfs count="1759">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2068,7 +2071,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1757">
+  <cellStyles count="1759">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2947,6 +2950,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3825,6 +3829,7 @@
     <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4221,6 +4226,98 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4538,7 +4635,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C2" sqref="C2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5305,7 +5402,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5474,13 +5571,13 @@
         <v>49</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20646,20 +20743,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -20667,62 +20772,45 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
-        <v>-2</v>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/gcam-data-system/energy-data/assumptions/Tables_A42s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A42s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="A42.sector.csv" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="76">
   <si>
     <t>technology</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Thous90US$/per</t>
+  </si>
+  <si>
+    <t>final.energy</t>
   </si>
 </sst>
 </file>
@@ -4159,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4174,12 +4177,12 @@
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4195,8 +4198,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4211,6 +4217,9 @@
       </c>
       <c r="E3">
         <v>-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -20745,7 +20754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
